--- a/заказы/статистика филиалы/2023/10,23/12,10,23 ЗПФ/дв 12,10,23 днрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/12,10,23 ЗПФ/дв 12,10,23 днрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\12,10,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\12,10,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF12EE37-ED87-451C-9622-4D942D2B4B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9C0391-3489-4EEE-B012-30E410B5D131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,7 +312,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +352,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -466,6 +472,8 @@
     <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3902,11 +3910,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AB52"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC32" sqref="AC32"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -3930,15 +3938,15 @@
     <col min="29" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -4014,7 +4022,7 @@
       </c>
       <c r="AB3" s="13"/>
     </row>
-    <row r="4" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -4058,7 +4066,7 @@
       <c r="AA4" s="10"/>
       <c r="AB4" s="13"/>
     </row>
-    <row r="5" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4144,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -4205,15 +4213,19 @@
         <f>VLOOKUP(A6,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="Z6" s="26">
         <v>4</v>
       </c>
       <c r="AA6" s="2">
         <f>Z6*Y6*H6</f>
         <v>14.399999999999999</v>
       </c>
+      <c r="AD6" s="2">
+        <f>Z6</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -4277,15 +4289,19 @@
         <f>VLOOKUP(A7,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="Z7" s="26">
         <v>9</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" ref="AA7:AA52" si="7">Z7*Y7*H7</f>
         <v>32.4</v>
       </c>
+      <c r="AD7" s="2">
+        <f t="shared" ref="AD7:AD10" si="8">Z7</f>
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -4350,15 +4366,19 @@
         <f>VLOOKUP(A8,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="Z8" s="26">
         <v>11</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="7"/>
         <v>39.6</v>
       </c>
+      <c r="AD8" s="2">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -4417,15 +4437,19 @@
         <f>VLOOKUP(A9,[1]TDSheet!$A:$Y,25,0)</f>
         <v>24</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="Z9" s="26">
         <v>3</v>
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="7"/>
         <v>6.4799999999999995</v>
       </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -4481,15 +4505,19 @@
         <f>VLOOKUP(A10,[1]TDSheet!$A:$Y,25,0)</f>
         <v>3</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="Z10" s="26">
         <v>17</v>
       </c>
       <c r="AA10" s="2">
         <f t="shared" si="7"/>
         <v>51</v>
       </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -4556,7 +4584,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -4611,7 +4639,7 @@
         <v>3.7</v>
       </c>
       <c r="Z12" s="18">
-        <f t="shared" ref="Z7:Z50" si="8">P12/Y12</f>
+        <f t="shared" ref="Z12:Z47" si="9">P12/Y12</f>
         <v>0</v>
       </c>
       <c r="AA12" s="2">
@@ -4619,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -4678,15 +4706,19 @@
         <f>VLOOKUP(A13,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="Z13" s="26">
         <v>6</v>
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
+      <c r="AD13" s="2">
+        <f t="shared" ref="AD13:AD14" si="10">Z13</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -4745,15 +4777,19 @@
         <f>VLOOKUP(A14,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="Z14" s="26">
         <v>7</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
@@ -4820,7 +4856,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -4879,7 +4915,7 @@
         <v>3.7</v>
       </c>
       <c r="Z16" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA16" s="2">
@@ -4887,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -4951,15 +4987,19 @@
         <f>VLOOKUP(A17,[1]TDSheet!$A:$Y,25,0)</f>
         <v>6</v>
       </c>
-      <c r="Z17" s="18">
+      <c r="Z17" s="26">
         <v>53</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="7"/>
         <v>79.5</v>
       </c>
+      <c r="AD17" s="2">
+        <f t="shared" ref="AD17:AD21" si="11">Z17</f>
+        <v>53</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -5020,15 +5060,19 @@
         <f>VLOOKUP(A18,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z18" s="18">
+      <c r="Z18" s="26">
         <v>4</v>
       </c>
       <c r="AA18" s="2">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
+      <c r="AD18" s="2">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>70</v>
       </c>
@@ -5080,15 +5124,18 @@
         <f>VLOOKUP(A19,[1]TDSheet!$A:$Y,25,0)</f>
         <v>6</v>
       </c>
-      <c r="Z19" s="18">
+      <c r="Z19" s="27">
         <v>33</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" si="7"/>
         <v>198</v>
       </c>
+      <c r="AD19" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -5149,15 +5196,19 @@
         <f>VLOOKUP(A20,[1]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="Z20" s="26">
         <v>5</v>
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
+      <c r="AD20" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -5221,15 +5272,19 @@
         <f>VLOOKUP(A21,[1]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
-      <c r="Z21" s="18">
+      <c r="Z21" s="26">
         <v>5</v>
       </c>
       <c r="AA21" s="2">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
+      <c r="AD21" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -5288,7 +5343,7 @@
         <v>8</v>
       </c>
       <c r="Z22" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA22" s="2">
@@ -5296,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>28</v>
       </c>
@@ -5353,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>29</v>
       </c>
@@ -5410,7 +5465,7 @@
         <v>16</v>
       </c>
       <c r="Z24" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA24" s="2">
@@ -5418,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
@@ -5480,15 +5535,19 @@
         <f>VLOOKUP(A25,[1]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
-      <c r="Z25" s="18">
+      <c r="Z25" s="26">
         <v>27</v>
       </c>
       <c r="AA25" s="2">
         <f t="shared" si="7"/>
         <v>194.4</v>
       </c>
+      <c r="AD25" s="2">
+        <f t="shared" ref="AD25" si="12">Z25</f>
+        <v>27</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
@@ -5547,7 +5606,7 @@
         <v>16</v>
       </c>
       <c r="Z26" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA26" s="2">
@@ -5555,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -5615,15 +5674,19 @@
         <f>VLOOKUP(A27,[1]TDSheet!$A:$Y,25,0)</f>
         <v>5</v>
       </c>
-      <c r="Z27" s="18">
+      <c r="Z27" s="26">
         <v>140</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" si="7"/>
         <v>700</v>
       </c>
+      <c r="AD27" s="2">
+        <f t="shared" ref="AD27:AD30" si="13">Z27</f>
+        <v>140</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
@@ -5688,15 +5751,19 @@
         <f>VLOOKUP(A28,[1]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
-      <c r="Z28" s="18">
+      <c r="Z28" s="26">
         <v>30</v>
       </c>
       <c r="AA28" s="2">
         <f t="shared" si="7"/>
         <v>216</v>
       </c>
+      <c r="AD28" s="2">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>34</v>
       </c>
@@ -5757,15 +5824,19 @@
         <f>VLOOKUP(A29,[1]TDSheet!$A:$Y,25,0)</f>
         <v>16</v>
       </c>
-      <c r="Z29" s="18">
+      <c r="Z29" s="26">
         <v>2</v>
       </c>
       <c r="AA29" s="2">
         <f t="shared" si="7"/>
         <v>13.76</v>
       </c>
+      <c r="AD29" s="2">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
@@ -5827,15 +5898,19 @@
         <f>VLOOKUP(A30,[1]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
-      <c r="Z30" s="18">
+      <c r="Z30" s="26">
         <v>22</v>
       </c>
       <c r="AA30" s="2">
         <f t="shared" si="7"/>
         <v>123.19999999999999</v>
       </c>
+      <c r="AD30" s="2">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -5894,7 +5969,7 @@
         <v>16</v>
       </c>
       <c r="Z31" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA31" s="2">
@@ -5902,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
@@ -5963,16 +6038,20 @@
         <f>VLOOKUP(A32,[1]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
-      <c r="Z32" s="18">
-        <f t="shared" si="8"/>
+      <c r="Z32" s="26">
+        <f t="shared" si="9"/>
         <v>21.024999999999999</v>
       </c>
       <c r="AA32" s="2">
         <f t="shared" si="7"/>
         <v>151.38</v>
       </c>
+      <c r="AD32" s="2">
+        <f t="shared" ref="AD32" si="14">Z32</f>
+        <v>21.024999999999999</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
@@ -6031,7 +6110,7 @@
         <v>16</v>
       </c>
       <c r="Z33" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA33" s="2">
@@ -6039,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>74</v>
       </c>
@@ -6095,15 +6174,19 @@
       <c r="Y34" s="17">
         <v>8</v>
       </c>
-      <c r="Z34" s="18">
+      <c r="Z34" s="26">
         <v>13</v>
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="7"/>
         <v>93.600000000000009</v>
       </c>
+      <c r="AD34" s="2">
+        <f t="shared" ref="AD34:AD35" si="15">Z34</f>
+        <v>13</v>
+      </c>
     </row>
-    <row r="35" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
@@ -6163,15 +6246,19 @@
         <f>VLOOKUP(A35,[1]TDSheet!$A:$Y,25,0)</f>
         <v>5</v>
       </c>
-      <c r="Z35" s="18">
+      <c r="Z35" s="26">
         <v>40</v>
       </c>
       <c r="AA35" s="2">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
+      <c r="AD35" s="2">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="36" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -6228,7 +6315,7 @@
         <v>16</v>
       </c>
       <c r="Z36" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA36" s="2">
@@ -6236,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
@@ -6293,7 +6380,7 @@
         <v>8</v>
       </c>
       <c r="Z37" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA37" s="2">
@@ -6301,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
@@ -6358,7 +6445,7 @@
         <v>6</v>
       </c>
       <c r="Z38" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA38" s="2">
@@ -6366,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
@@ -6426,7 +6513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>43</v>
       </c>
@@ -6487,15 +6574,19 @@
         <f>VLOOKUP(A40,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z40" s="18">
+      <c r="Z40" s="26">
         <v>9</v>
       </c>
       <c r="AA40" s="2">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
+      <c r="AD40" s="2">
+        <f t="shared" ref="AD40:AD45" si="16">Z40</f>
+        <v>9</v>
+      </c>
     </row>
-    <row r="41" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>44</v>
       </c>
@@ -6556,15 +6647,19 @@
         <f>VLOOKUP(A41,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z41" s="18">
+      <c r="Z41" s="26">
         <v>6</v>
       </c>
       <c r="AA41" s="2">
         <f t="shared" si="7"/>
         <v>21.599999999999998</v>
       </c>
+      <c r="AD41" s="2">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="42" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>45</v>
       </c>
@@ -6625,15 +6720,19 @@
         <f>VLOOKUP(A42,[1]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
-      <c r="Z42" s="18">
+      <c r="Z42" s="26">
         <v>10</v>
       </c>
       <c r="AA42" s="2">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
+      <c r="AD42" s="2">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="43" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>46</v>
       </c>
@@ -6689,15 +6788,19 @@
         <f>VLOOKUP(A43,[1]TDSheet!$A:$Y,25,0)</f>
         <v>1.8</v>
       </c>
-      <c r="Z43" s="18">
+      <c r="Z43" s="26">
         <v>17</v>
       </c>
       <c r="AA43" s="2">
         <f t="shared" si="7"/>
         <v>30.6</v>
       </c>
+      <c r="AD43" s="2">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="44" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>47</v>
       </c>
@@ -6758,15 +6861,19 @@
         <f>VLOOKUP(A44,[1]TDSheet!$A:$Y,25,0)</f>
         <v>6</v>
       </c>
-      <c r="Z44" s="18">
+      <c r="Z44" s="26">
         <v>8</v>
       </c>
       <c r="AA44" s="2">
         <f t="shared" si="7"/>
         <v>9.6000000000000014</v>
       </c>
+      <c r="AD44" s="2">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="45" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
@@ -6827,15 +6934,19 @@
         <f>VLOOKUP(A45,[1]TDSheet!$A:$Y,25,0)</f>
         <v>6</v>
       </c>
-      <c r="Z45" s="18">
+      <c r="Z45" s="26">
         <v>12</v>
       </c>
       <c r="AA45" s="2">
         <f t="shared" si="7"/>
         <v>14.4</v>
       </c>
+      <c r="AD45" s="2">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="46" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>49</v>
       </c>
@@ -6895,7 +7006,7 @@
         <v>12</v>
       </c>
       <c r="Z46" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA46" s="2">
@@ -6903,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>50</v>
       </c>
@@ -6963,7 +7074,7 @@
         <v>12</v>
       </c>
       <c r="Z47" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA47" s="2">
@@ -6971,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>51</v>
       </c>
@@ -7032,12 +7143,16 @@
         <f>VLOOKUP(A48,[1]TDSheet!$A:$Y,25,0)</f>
         <v>22</v>
       </c>
-      <c r="Z48" s="18">
+      <c r="Z48" s="26">
         <v>6</v>
       </c>
       <c r="AA48" s="2">
         <f t="shared" si="7"/>
         <v>18.48</v>
+      </c>
+      <c r="AD48" s="2">
+        <f t="shared" ref="AD48" si="17">Z48</f>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
